--- a/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>LIAN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,40 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +711,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,23 +823,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="3">
         <v>146400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>120900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,23 +962,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E17" s="3">
         <v>160000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>134900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6600</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,8 +992,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,14 +1004,14 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-134900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6600</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,13 +1050,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4700</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1036,8 +1070,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1045,14 +1082,14 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-159900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-139500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,19 +1102,22 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1094,23 +1134,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-160000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-139600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6600</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,22 +1166,25 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,23 +1230,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-162000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-139600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6600</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,23 +1262,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-162000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-139600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6600</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,13 +1434,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>4700</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1384,23 +1454,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-162000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-139600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6600</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,23 +1518,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-162000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-139600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6600</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,28 +1550,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,17 +1617,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E41" s="3">
         <v>142600</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,17 +1679,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1711,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,17 +1743,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,17 +1775,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E46" s="3">
         <v>146400</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,17 +1839,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,8 +1871,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,16 +1967,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>20000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>20000</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,17 +2031,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E54" s="3">
         <v>168600</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,17 +2093,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>30400</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2123,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,17 +2155,20 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E59" s="3">
         <v>11700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,17 +2187,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E60" s="3">
         <v>42100</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,17 +2251,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E62" s="3">
         <v>21200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,17 +2379,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E66" s="3">
         <v>107500</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2333,7 +2501,7 @@
         <v>352700</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>352700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,17 +2553,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-339000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-325900</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,17 +2681,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-297300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-291600</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2745,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,23 +2782,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-162000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-139600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6600</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2644,10 +2843,10 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,23 +3020,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-94800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-98100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6700</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2857,14 +3078,14 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2944,14 +3174,14 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,23 +3336,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>309800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,23 +3368,26 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3151,23 +3400,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-91700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>211100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7800</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
   <si>
     <t>LIAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,8 +714,11 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,8 +749,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +784,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,29 +836,30 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E12" s="3">
         <v>4700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>146400</v>
       </c>
-      <c r="F12" s="3">
-        <v>120900</v>
-      </c>
       <c r="G12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>116900</v>
+      </c>
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +904,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +939,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,29 +988,30 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E17" s="3">
         <v>13500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>160000</v>
       </c>
-      <c r="F17" s="3">
-        <v>134900</v>
-      </c>
       <c r="G17" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>119000</v>
+      </c>
+      <c r="I17" s="3">
         <v>6600</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1021,11 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1004,20 +1033,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-160000</v>
       </c>
-      <c r="F18" s="3">
-        <v>-134900</v>
-      </c>
       <c r="G18" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-6600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1073,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1050,19 +1083,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-4700</v>
-      </c>
       <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>-3500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1073,8 +1106,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1082,20 +1118,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-159900</v>
       </c>
-      <c r="F21" s="3">
-        <v>-139500</v>
-      </c>
       <c r="G21" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-6600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,31 +1141,34 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1137,29 +1176,32 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-160000</v>
       </c>
-      <c r="F23" s="3">
-        <v>-139600</v>
-      </c>
       <c r="G23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-6600</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1169,28 +1211,31 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1201,8 +1246,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,29 +1281,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-162000</v>
       </c>
-      <c r="F26" s="3">
-        <v>-139600</v>
-      </c>
       <c r="G26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-6600</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,29 +1316,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-162000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-139600</v>
-      </c>
       <c r="G27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-6600</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,8 +1491,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1434,19 +1503,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>4700</v>
-      </c>
       <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>3500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1457,29 +1526,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-162000</v>
       </c>
-      <c r="F33" s="3">
-        <v>-139600</v>
-      </c>
       <c r="G33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,29 +1596,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-162000</v>
       </c>
-      <c r="F35" s="3">
-        <v>-139600</v>
-      </c>
       <c r="G35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1553,34 +1631,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,20 +1703,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>228200</v>
+      </c>
+      <c r="E41" s="3">
         <v>109000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>142600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,31 +1736,34 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>155100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1682,20 +1771,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E43" s="3">
         <v>6400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1806,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,20 +1841,23 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,20 +1876,23 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>399600</v>
+      </c>
+      <c r="E46" s="3">
         <v>121000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>146400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1911,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1842,20 +1946,23 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1981,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2016,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,19 +2086,22 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="E52" s="3">
         <v>20000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>20000</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2121,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,20 +2156,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>426300</v>
+      </c>
+      <c r="E54" s="3">
         <v>141900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>168600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,20 +2223,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30400</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2256,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2158,20 +2291,23 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
         <v>20600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,20 +2326,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E60" s="3">
         <v>22300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>42100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,8 +2361,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2254,20 +2396,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E62" s="3">
         <v>20000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2431,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,20 +2536,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E66" s="3">
         <v>86400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>107500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,19 +2656,22 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>352700</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>352700</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>352700</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2524,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,20 +2726,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-360200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-339000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-325900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,20 +2866,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>353600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-297300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-291600</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,34 +2936,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,29 +2976,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-162000</v>
       </c>
-      <c r="F81" s="3">
-        <v>-139600</v>
-      </c>
       <c r="G81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,13 +3028,14 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -2848,11 +3046,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2863,8 +3061,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,29 +3236,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-38800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-94800</v>
       </c>
-      <c r="F89" s="3">
-        <v>-98100</v>
-      </c>
       <c r="G89" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-6700</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,29 +3288,30 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3101,8 +3321,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,29 +3391,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-155800</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3426,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,29 +3581,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E100" s="3">
         <v>5300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
-        <v>309800</v>
-      </c>
       <c r="G100" s="3">
+        <v>294800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>15000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3371,29 +3616,32 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>300</v>
-      </c>
       <c r="G101" s="3">
+        <v>400</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3403,29 +3651,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-33600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-91700</v>
       </c>
-      <c r="F102" s="3">
-        <v>211100</v>
-      </c>
       <c r="G102" s="3">
+        <v>245800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="I102" s="3">
         <v>7800</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3433,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>LIAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,69 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,8 +761,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,8 +802,14 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,8 +843,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,43 +864,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F12" s="3">
         <v>7700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4700</v>
       </c>
-      <c r="F12" s="3">
-        <v>146400</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>93000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>53400</v>
+      </c>
+      <c r="J12" s="3">
         <v>2700</v>
       </c>
-      <c r="H12" s="3">
-        <v>116900</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1300</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +942,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,8 +983,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1024,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,43 +1042,51 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>28400</v>
+      </c>
+      <c r="F17" s="3">
         <v>22000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13500</v>
       </c>
-      <c r="F17" s="3">
-        <v>160000</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>99500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>60500</v>
+      </c>
+      <c r="J17" s="3">
         <v>9200</v>
       </c>
-      <c r="H17" s="3">
-        <v>119000</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6600</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1033,34 +1094,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-13500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-160000</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-99500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-9200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-119000</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,8 +1141,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1083,25 +1152,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-3500</v>
       </c>
-      <c r="H20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1109,8 +1178,14 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1118,34 +1193,40 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-13400</v>
       </c>
-      <c r="F21" s="3">
-        <v>-159900</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-12700</v>
       </c>
-      <c r="H21" s="3">
-        <v>-120200</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1170,78 +1251,90 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-22200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-13500</v>
       </c>
-      <c r="F23" s="3">
-        <v>-160000</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-99500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-12700</v>
       </c>
-      <c r="H23" s="3">
-        <v>-120200</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1249,8 +1342,14 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,78 +1383,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-21200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-13100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-162000</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-12700</v>
       </c>
-      <c r="H26" s="3">
-        <v>-120200</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-21200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-13100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-162000</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-12700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-120200</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1506,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1547,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1588,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,8 +1629,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1503,25 +1644,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>3500</v>
       </c>
-      <c r="H32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1529,43 +1670,55 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-21200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-13100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-162000</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-12700</v>
       </c>
-      <c r="H33" s="3">
-        <v>-120200</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,83 +1752,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-21200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-13100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-162000</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-12700</v>
       </c>
-      <c r="H35" s="3">
-        <v>-120200</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1860,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,26 +1877,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>134300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>139900</v>
+      </c>
+      <c r="F41" s="3">
         <v>228200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>109000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>142600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,20 +1914,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>229300</v>
+      </c>
+      <c r="F42" s="3">
         <v>155100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,35 +1946,41 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F43" s="3">
         <v>7200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>6400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,8 +1996,14 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,26 +2037,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F45" s="3">
         <v>9200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,26 +2078,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>343700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>386100</v>
+      </c>
+      <c r="F46" s="3">
         <v>399600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>121000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>146400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,8 +2119,14 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1949,26 +2160,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F48" s="3">
         <v>6600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,8 +2201,14 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2019,8 +2242,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2283,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,8 +2324,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2098,17 +2339,17 @@
         <v>20100</v>
       </c>
       <c r="E52" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>20100</v>
+      </c>
+      <c r="G52" s="3">
         <v>20000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>20000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2365,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,26 +2406,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>371800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>413500</v>
+      </c>
+      <c r="F54" s="3">
         <v>426300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>141900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>168600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2447,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2468,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,26 +2485,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>30400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,8 +2522,14 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2294,26 +2563,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F59" s="3">
         <v>11900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>20600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,26 +2604,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F60" s="3">
         <v>15100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>22300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>42100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2645,14 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2399,8 +2686,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2408,17 +2701,17 @@
         <v>23900</v>
       </c>
       <c r="E62" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>23900</v>
+      </c>
+      <c r="G62" s="3">
         <v>20000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>21200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2727,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2768,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2809,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,26 +2850,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>82500</v>
+      </c>
+      <c r="F66" s="3">
         <v>72800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>86400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>107500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2891,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2912,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2949,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2990,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2668,17 +3005,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>352700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>352700</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2694,8 +3031,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,26 +3072,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-430400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-388000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-360200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-339000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-325900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2764,8 +3113,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +3154,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3195,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,26 +3236,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>292400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>331000</v>
+      </c>
+      <c r="F76" s="3">
         <v>353600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-297300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-291600</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3277,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,83 +3318,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-21200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-13100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-162000</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-12700</v>
       </c>
-      <c r="H81" s="3">
-        <v>-120200</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,34 +3426,36 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3064,8 +3463,14 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3504,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3545,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3586,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3627,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,43 +3668,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-30400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-38800</v>
       </c>
-      <c r="F89" s="3">
-        <v>-94800</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J89" s="3">
         <v>-48900</v>
       </c>
-      <c r="H89" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6700</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,43 +3730,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3808,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,43 +3849,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-155800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3911,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3948,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3989,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +4030,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,69 +4071,81 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>305000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>5300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>294800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>15000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>200</v>
-      </c>
       <c r="G101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>400</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-100</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -3654,39 +4153,51 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="F102" s="3">
         <v>119200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-33600</v>
       </c>
-      <c r="F102" s="3">
-        <v>-91700</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>-92600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>900</v>
+      </c>
+      <c r="J102" s="3">
         <v>245800</v>
       </c>
-      <c r="H102" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>7800</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>LIAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,8 +727,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,8 +771,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +815,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,38 +879,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E12" s="3">
         <v>28600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>93000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>53400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,38 +1070,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E17" s="3">
         <v>43100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>99500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>60500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,8 +1112,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,29 +1124,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-28400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-22000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-99500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-60500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1156,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1152,28 +1186,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1184,8 +1218,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1193,29 +1230,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-27400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-22000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-99400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-60500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,8 +1262,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1257,8 +1297,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1266,38 +1306,41 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-42400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-99500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-60600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,8 +1350,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1319,25 +1365,25 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1000</v>
       </c>
       <c r="I24" s="3">
         <v>1000</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,38 +1438,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-42400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-61600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,38 +1482,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-42400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-61600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,8 +1526,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,28 +1714,28 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1676,38 +1746,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-42400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-61600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1790,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,38 +1834,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-42400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-61600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,43 +1878,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1927,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,29 +1965,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E41" s="3">
         <v>134300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>139900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>228200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>109000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>142600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,23 +2007,26 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>232900</v>
+      </c>
+      <c r="E42" s="3">
         <v>195000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>229300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>155100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1952,8 +2042,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1961,29 +2051,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E43" s="3">
         <v>8900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,29 +2139,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
         <v>5500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,29 +2183,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>324200</v>
+      </c>
+      <c r="E46" s="3">
         <v>343700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>386100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>399600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>121000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>146400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,29 +2271,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E48" s="3">
         <v>8000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,8 +2315,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2345,13 +2465,13 @@
         <v>20100</v>
       </c>
       <c r="G52" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="H52" s="3">
         <v>20000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>20000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,29 +2535,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>351800</v>
+      </c>
+      <c r="E54" s="3">
         <v>371800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>413500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>426300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>141900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>168600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,29 +2617,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2569,29 +2703,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E59" s="3">
         <v>20500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,29 +2747,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E60" s="3">
         <v>21700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>42100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2692,29 +2835,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E62" s="3">
         <v>23900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,29 +3011,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E66" s="3">
         <v>79400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>72800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>86400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>107500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3011,13 +3179,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>352700</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>352700</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>352700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,29 +3249,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-452200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-430400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-388000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-360200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-339000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-325900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,29 +3425,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>272800</v>
+      </c>
+      <c r="E76" s="3">
         <v>292400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>331000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>353600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-297300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-291600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,43 +3513,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3370,38 +3562,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-42400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-61600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3411,8 +3606,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,22 +3626,23 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3452,13 +3651,13 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,38 +3888,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-39400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-38800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-92900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-48900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,38 +3952,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,38 +4082,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E94" s="3">
         <v>33600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-75300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-155800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,38 +4320,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>305000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>294800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>15000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,38 +4364,41 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4159,38 +4408,41 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-88300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>119200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-33600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-92600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>245800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4450,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>LIAN</t>
   </si>
@@ -1315,7 +1315,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>21900</v>
+        <v>-21900</v>
       </c>
       <c r="E23" s="3">
         <v>-42400</v>
@@ -1446,8 +1446,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-21900</v>
       </c>
       <c r="E26" s="3">
         <v>-42400</v>
@@ -1490,8 +1490,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-21900</v>
       </c>
       <c r="E27" s="3">
         <v>-42400</v>
@@ -1754,8 +1754,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-21900</v>
       </c>
       <c r="E33" s="3">
         <v>-42400</v>
@@ -1842,8 +1842,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-21900</v>
       </c>
       <c r="E35" s="3">
         <v>-42400</v>
@@ -2060,7 +2060,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7400</v>
+        <v>9500</v>
       </c>
       <c r="E43" s="3">
         <v>8900</v>
@@ -2148,7 +2148,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5100</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="3">
         <v>5500</v>
@@ -2623,8 +2623,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
         <v>1200</v>
@@ -3570,8 +3570,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-21900</v>
       </c>
       <c r="E81" s="3">
         <v>-42400</v>
@@ -4091,7 +4091,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>121900</v>
+        <v>-38500</v>
       </c>
       <c r="E94" s="3">
         <v>33600</v>

--- a/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>LIAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,80 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,8 +781,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +831,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +881,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +905,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F12" s="3">
         <v>8300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>28600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>12300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>7700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>4700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>93000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>53400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1001,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1051,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1101,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,52 +1122,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F17" s="3">
         <v>24500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>43100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>28400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>22000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>99500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>60500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,43 +1183,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-43100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-28400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-22000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-13500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-99500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-60500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-9200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1242,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,34 +1253,34 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1221,8 +1288,14 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1230,43 +1303,49 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-42200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-27400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-22000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-13400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-99400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-60500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-12700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1300,96 +1379,108 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-21900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-42400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-27700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-22200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-13500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-99500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-60600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1397,8 +1488,14 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-21900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-42400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-27700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-21200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-13100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-61600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-21900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-42400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-27700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-21200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-13100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-61600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-12700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1838,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1714,34 +1853,34 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1749,52 +1888,64 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-21900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-42400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-27700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-21200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-13100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-61600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-12700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-21900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-42400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-27700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-21200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-13100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-61600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-12700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,35 +2137,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>79200</v>
+      </c>
+      <c r="F41" s="3">
         <v>78900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>134300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>139900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>228200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>109000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>142600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,29 +2183,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>184200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>223100</v>
+      </c>
+      <c r="F42" s="3">
         <v>232900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>195000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>229300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>155100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2045,44 +2224,50 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F43" s="3">
         <v>9500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>8900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>9200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>7200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>6400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2283,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,35 +2333,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>9200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,35 +2383,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>296100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>312800</v>
+      </c>
+      <c r="F46" s="3">
         <v>324200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>343700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>386100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>399600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>121000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>146400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2433,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,35 +2483,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F48" s="3">
         <v>7500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,8 +2533,14 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2583,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,16 +2683,22 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20100</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>20100</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>20100</v>
@@ -2468,17 +2707,17 @@
         <v>20100</v>
       </c>
       <c r="H52" s="3">
+        <v>20100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J52" s="3">
         <v>20000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>20000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2733,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,35 +2783,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>302600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>320000</v>
+      </c>
+      <c r="F54" s="3">
         <v>351800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>371800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>413500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>426300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>141900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>168600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2833,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,35 +2877,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>30400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2923,14 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,35 +2973,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F59" s="3">
         <v>20000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>20500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>17200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>20600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,35 +3023,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F60" s="3">
         <v>22000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>21700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>25200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>22300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>42100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +3073,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,35 +3123,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F62" s="3">
         <v>23200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>23900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>23600</v>
       </c>
       <c r="G62" s="3">
         <v>23900</v>
       </c>
       <c r="H62" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>23900</v>
+      </c>
+      <c r="J62" s="3">
         <v>20000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>21200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3173,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,35 +3323,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F66" s="3">
         <v>79000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>79400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>82500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>72800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>86400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>107500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3373,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3182,17 +3517,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>352700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>352700</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,35 +3593,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-494600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-470500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-452200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-430400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-388000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-360200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-339000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-325900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3643,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,35 +3793,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>240700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>259900</v>
+      </c>
+      <c r="F76" s="3">
         <v>272800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>292400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>331000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>353600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-297300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-291600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3843,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-21900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-42400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-27700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-21200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-13100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-61600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-12700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +4022,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3636,34 +4033,34 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3671,8 +4068,14 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-16000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-39400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-13100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-30400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-38800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-92900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-48900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-6700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-38500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>33600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-75300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-155800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,87 +4808,99 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>305000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>5300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>294800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>15000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>300</v>
       </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>400</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-100</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -4411,48 +4908,60 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-55500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-88300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>119200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-33600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-92600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>245800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>7800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>LIAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,8 +738,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,8 +791,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,47 +920,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E12" s="3">
         <v>10800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>93000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>53400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,47 +1150,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E17" s="3">
         <v>26000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>99500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>60500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,8 +1201,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1183,38 +1213,38 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-29200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-43100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-28400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-22000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-99500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-60500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1277,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1253,37 +1287,37 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F20" s="3">
         <v>10600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1294,8 +1328,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,38 +1340,38 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-18300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-42200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-27400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-22000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-99400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-60500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,8 +1381,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1385,8 +1425,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1394,47 +1434,50 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-42400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-99500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-60600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,20 +1487,23 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1465,25 +1511,25 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1000</v>
       </c>
       <c r="L24" s="3">
         <v>1000</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,47 +1593,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-42400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-61600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1594,47 +1646,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-42400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-61600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1911,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1853,37 +1923,37 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1894,47 +1964,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-42400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-61600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,47 +2070,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-42400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-61600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,52 +2123,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2181,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,38 +2225,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E41" s="3">
         <v>102300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>79200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>78900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>134300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>139900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>228200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>109000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>142600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,32 +2276,35 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>163200</v>
+      </c>
+      <c r="E42" s="3">
         <v>184200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>223100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>232900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>195000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>229300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>155100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2320,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2239,38 +2329,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,38 +2435,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,38 +2488,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>273100</v>
+      </c>
+      <c r="E46" s="3">
         <v>296100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>312800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>324200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>343700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>386100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>399600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>121000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>146400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,8 +2541,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,38 +2594,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E48" s="3">
         <v>6400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,8 +2647,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,8 +2806,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2701,7 +2821,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>20100</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>20100</v>
@@ -2713,13 +2833,13 @@
         <v>20100</v>
       </c>
       <c r="J52" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="K52" s="3">
         <v>20000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>20000</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,38 +2912,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E54" s="3">
         <v>302600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>320000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>351800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>371800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>413500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>426300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>141900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>168600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,38 +3009,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,38 +3113,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E59" s="3">
         <v>20500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,38 +3166,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E60" s="3">
         <v>25900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,8 +3219,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3129,38 +3272,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,38 +3484,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E66" s="3">
         <v>61900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>60100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>79000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>79400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>72800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>86400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>107500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3523,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>352700</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>352700</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>352700</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,38 +3770,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-516200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-494600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-470500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-452200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-430400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-388000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-360200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-339000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-325900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,38 +3982,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>221700</v>
+      </c>
+      <c r="E76" s="3">
         <v>240700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>259900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>272800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>292400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>331000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>353600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-297300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-291600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,52 +4088,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3954,47 +4146,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-42400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-61600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4039,16 +4238,16 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4057,13 +4256,13 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,47 +4538,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-30700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-39400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-30400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-38800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-92900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-48900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,47 +4614,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
       </c>
       <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,47 +4771,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E94" s="3">
         <v>40500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>11000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>33600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-75300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-155800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,47 +5057,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>305000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>294800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4864,47 +5110,50 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4914,47 +5163,50 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>23100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-55500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-88300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>119200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-33600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-92600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>245800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LIAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>LIAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,74 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -741,8 +742,11 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,8 +798,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,50 +934,51 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>9500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>93000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>53400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,50 +1177,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E17" s="3">
         <v>25000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>99500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>60500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1204,8 +1231,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,41 +1243,41 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-26000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-24500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-43100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-22000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-99500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-60500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1287,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1287,40 +1321,40 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1331,8 +1365,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1340,41 +1377,41 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-23300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-42200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-27400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-22000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-99400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-60500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,8 +1421,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1428,8 +1468,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1437,50 +1477,53 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-42400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-22200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-99500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-60600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1490,23 +1533,26 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1514,25 +1560,25 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1000</v>
       </c>
       <c r="M24" s="3">
         <v>1000</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,50 +1645,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-42400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-61600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,50 +1701,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-42400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-61600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,8 +1757,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1923,40 +1993,40 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1967,50 +2037,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-42400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-27700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-61600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2093,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,50 +2149,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-42400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-27700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-61600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,55 +2205,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2184,8 +2266,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,41 +2312,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E41" s="3">
         <v>104100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>102300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>79200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>78900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>134300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>139900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>228200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>109000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>142600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,35 +2366,38 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E42" s="3">
         <v>163200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>184200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>223100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>232900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>195000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>229300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>155100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2413,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2332,41 +2422,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,41 +2534,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,41 +2590,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>257800</v>
+      </c>
+      <c r="E46" s="3">
         <v>273100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>296100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>312800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>324200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>343700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>386100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>399600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>121000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>146400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,41 +2702,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,8 +2926,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2824,7 +2944,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>20100</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>20100</v>
@@ -2836,13 +2956,13 @@
         <v>20100</v>
       </c>
       <c r="K52" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="L52" s="3">
         <v>20000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>20000</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,41 +3038,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>262900</v>
+      </c>
+      <c r="E54" s="3">
         <v>278800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>302600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>320000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>351800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>371800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>413500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>426300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>141900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>168600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,41 +3140,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3116,41 +3250,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E59" s="3">
         <v>19700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,41 +3306,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E60" s="3">
         <v>21600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>25200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,8 +3362,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3275,41 +3418,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,41 +3642,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E66" s="3">
         <v>57100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>60100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>79000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>79400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>72800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>107500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3694,13 +3862,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>352700</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>352700</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>352700</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,41 +3944,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-540200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-516200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-494600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-470500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-452200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-430400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-388000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-360200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-339000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-325900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,41 +4168,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>202300</v>
+      </c>
+      <c r="E76" s="3">
         <v>221700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>240700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>259900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>272800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>292400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>331000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>353600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-297300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-291600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,55 +4280,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4149,50 +4341,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-42400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-27700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-61600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4202,8 +4397,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4241,16 +4440,16 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4259,13 +4458,13 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,50 +4755,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-39400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-30400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-38800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-92900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-48900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4811,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,50 +4835,51 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,50 +5001,53 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="E94" s="3">
         <v>22000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>40500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>33600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-75300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-155800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,50 +5303,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>305000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>294800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5113,50 +5359,53 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5166,50 +5415,53 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-55500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-88300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>119200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-92600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>245800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5217,6 +5469,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
